--- a/tornado.xlsx
+++ b/tornado.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H318"/>
+  <dimension ref="A1:H1809"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.001013040542602539</v>
+        <v>0.006031036376953125</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -473,17 +473,17 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>259</v>
+        <v>57547</v>
       </c>
       <c r="D2" t="n">
-        <v>30.49847449055208</v>
+        <v>30.28048443662427</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001378403853166743</v>
+        <v>0.0009654313325881958</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CPU: 1.5% usage</t>
+          <t>CPU: 1.4% usage</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -499,1582 +499,9037 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.001001119613647461</v>
+        <v>0.005020380020141602</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.002001285552978516</v>
+        <v>0.002998590469360352</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.001008033752441406</v>
+        <v>0.002996444702148438</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.002023935317993164</v>
+        <v>0.003992319107055664</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.002003908157348633</v>
+        <v>0.003980159759521484</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.001999378204345703</v>
+        <v>0.004004716873168945</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.001017093658447266</v>
+        <v>0.001993417739868164</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.001992464065551758</v>
+        <v>0.003027677536010742</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0009946823120117188</v>
+        <v>0.003000259399414062</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.0009965896606445312</v>
+        <v>0.003000497817993164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.001001596450805664</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0009999275207519531</v>
+        <v>0.001994848251342773</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.001000642776489258</v>
+        <v>0.002038002014160156</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.002014875411987305</v>
+        <v>0.002003669738769531</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.00101923942565918</v>
+        <v>0.002034187316894531</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0009989738464355469</v>
+        <v>0.004001617431640625</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.001997709274291992</v>
+        <v>0.002992153167724609</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.001999855041503906</v>
+        <v>0.002995967864990234</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.001005887985229492</v>
+        <v>0.004000663757324219</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.002006769180297852</v>
+        <v>0.004001379013061523</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.001001358032226562</v>
+        <v>0.003998994827270508</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.000988006591796875</v>
+        <v>0.00397801399230957</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.001354217529296875</v>
+        <v>0.003025054931640625</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.0009982585906982422</v>
+        <v>0.003037452697753906</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.0009980201721191406</v>
+        <v>0.003036260604858398</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.003012895584106445</v>
+        <v>0.002982139587402344</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.001001119613647461</v>
+        <v>0.003036975860595703</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.001995086669921875</v>
+        <v>0.002998113632202148</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.00100255012512207</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.001996278762817383</v>
+        <v>0.002999782562255859</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.002010345458984375</v>
+        <v>0.003001928329467773</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.002007961273193359</v>
+        <v>0.004998207092285156</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.0009837150573730469</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.0009999275207519531</v>
+        <v>0.001997709274291992</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.001001119613647461</v>
+        <v>0.003020286560058594</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.0009965896606445312</v>
+        <v>0.003002166748046875</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.0009984970092773438</v>
+        <v>0.001997232437133789</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.00099945068359375</v>
+        <v>0.002992391586303711</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.0009996891021728516</v>
+        <v>0.001971006393432617</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.001061439514160156</v>
+        <v>0.003999710083007812</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.001504898071289062</v>
+        <v>0.003004312515258789</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.001003265380859375</v>
+        <v>0.002996921539306641</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.0009975433349609375</v>
+        <v>0.003027677536010742</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.002022027969360352</v>
+        <v>0.002980947494506836</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.001011133193969727</v>
+        <v>0.003000974655151367</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.002001523971557617</v>
+        <v>0.003027915954589844</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.001000642776489258</v>
+        <v>0.00299835205078125</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.001001119613647461</v>
+        <v>0.003027677536010742</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.001030206680297852</v>
+        <v>0.003036022186279297</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.001999616622924805</v>
+        <v>0.00299835205078125</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.001995325088500977</v>
+        <v>0.00300145149230957</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.001005649566650391</v>
+        <v>0.003998994827270508</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.0009977817535400391</v>
+        <v>0.002032279968261719</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.0009989738464355469</v>
+        <v>0.001997709274291992</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.001963138580322266</v>
+        <v>0.001997709274291992</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.001011848449707031</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.0009999275207519531</v>
+        <v>0.003037214279174805</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.001007080078125</v>
+        <v>0.002989530563354492</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.0009982585906982422</v>
+        <v>0.00599360466003418</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.0009636878967285156</v>
+        <v>0.003999233245849609</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.0009863376617431641</v>
+        <v>0.005000591278076172</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.0009992122650146484</v>
+        <v>0.00297999382019043</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.001986026763916016</v>
+        <v>0.003000974655151367</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.001996755599975586</v>
+        <v>0.002996921539306641</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.001000404357910156</v>
+        <v>0.003999471664428711</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.0009663105010986328</v>
+        <v>0.004998683929443359</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.0009839534759521484</v>
+        <v>0.003025293350219727</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.0009963512420654297</v>
+        <v>0.003026485443115234</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.0009996891021728516</v>
+        <v>0.002027034759521484</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.002016782760620117</v>
+        <v>0.004974603652954102</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.0009939670562744141</v>
+        <v>0.002980709075927734</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.002004146575927734</v>
+        <v>0.008987903594970703</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.001001834869384766</v>
+        <v>0.003977298736572266</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.0009975433349609375</v>
+        <v>0.00303196907043457</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.0009987354278564453</v>
+        <v>0.002038955688476562</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.002000093460083008</v>
+        <v>0.003013372421264648</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.001000881195068359</v>
+        <v>0.002997636795043945</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.0009980201721191406</v>
+        <v>0.001972198486328125</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.001001834869384766</v>
+        <v>0.002992630004882812</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.002010345458984375</v>
+        <v>0.00299835205078125</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.001984119415283203</v>
+        <v>0.004001140594482422</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.002020835876464844</v>
+        <v>0.003001928329467773</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.001002788543701172</v>
+        <v>0.003022432327270508</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.002000808715820312</v>
+        <v>0.002998828887939453</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.001000642776489258</v>
+        <v>0.001998186111450195</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.002003192901611328</v>
+        <v>0.003999471664428711</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.0009908676147460938</v>
+        <v>0.004007101058959961</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.00100398063659668</v>
+        <v>0.003007173538208008</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.0009996891021728516</v>
+        <v>0.004000425338745117</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.002007961273193359</v>
+        <v>0.003002166748046875</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.001011371612548828</v>
+        <v>0.0030364990234375</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.001410007476806641</v>
+        <v>0.002026557922363281</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.001001358032226562</v>
+        <v>0.003000736236572266</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.001019954681396484</v>
+        <v>0.002022027969360352</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.001998186111450195</v>
+        <v>0.003005504608154297</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.002002716064453125</v>
+        <v>0.002997159957885742</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.001999139785766602</v>
+        <v>0.003020524978637695</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.001010656356811523</v>
+        <v>0.003999710083007812</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.002002716064453125</v>
+        <v>0.002995014190673828</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.002018451690673828</v>
+        <v>0.0030364990234375</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.001028299331665039</v>
+        <v>0.003002405166625977</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.0009989738464355469</v>
+        <v>0.002000331878662109</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.0009875297546386719</v>
+        <v>0.001995563507080078</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.0009973049163818359</v>
+        <v>0.002980470657348633</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.002007484436035156</v>
+        <v>0.003026247024536133</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.0009949207305908203</v>
+        <v>0.003001928329467773</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.001003503799438477</v>
+        <v>0.002999544143676758</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.001017570495605469</v>
+        <v>0.002998828887939453</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.0009927749633789062</v>
+        <v>0.002995729446411133</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.002002954483032227</v>
+        <v>0.002995967864990234</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.002010107040405273</v>
+        <v>0.002998828887939453</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.001001358032226562</v>
+        <v>0.002002716064453125</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.001000165939331055</v>
+        <v>0.002999305725097656</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.002001762390136719</v>
+        <v>0.003983259201049805</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.0009784698486328125</v>
+        <v>0.003037452697753906</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.0009772777557373047</v>
+        <v>0.004006862640380859</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.0009987354278564453</v>
+        <v>0.005005359649658203</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.001877307891845703</v>
+        <v>0.004003763198852539</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.002005577087402344</v>
+        <v>0.003015756607055664</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.0009791851043701172</v>
+        <v>0.004016876220703125</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.003004074096679688</v>
+        <v>0.00301361083984375</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.001998424530029297</v>
+        <v>0.003030061721801758</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.001000404357910156</v>
+        <v>0.003000736236572266</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.001004219055175781</v>
+        <v>0.003988027572631836</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.0009973049163818359</v>
+        <v>0.004002571105957031</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.0009768009185791016</v>
+        <v>0.003989934921264648</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.002001523971557617</v>
+        <v>0.002996206283569336</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.0009934902191162109</v>
+        <v>0.003322124481201172</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.0009868144989013672</v>
+        <v>0.002999305725097656</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.0009965896606445312</v>
+        <v>0.003029823303222656</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.001001119613647461</v>
+        <v>0.002996683120727539</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.001999378204345703</v>
+        <v>0.003037452697753906</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.002009391784667969</v>
+        <v>0.003036975860595703</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.0009989738464355469</v>
+        <v>0.002087593078613281</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.001003026962280273</v>
+        <v>0.002999544143676758</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.001000404357910156</v>
+        <v>0.002036333084106445</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.001000404357910156</v>
+        <v>0.002998590469360352</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.001522064208984375</v>
+        <v>0.003001213073730469</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.002000331878662109</v>
+        <v>0.001990318298339844</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.001999855041503906</v>
+        <v>0.002997159957885742</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.002007961273193359</v>
+        <v>0.004000186920166016</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.001999616622924805</v>
+        <v>0.003002166748046875</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.002001762390136719</v>
+        <v>0.002997398376464844</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.0009992122650146484</v>
+        <v>0.003004789352416992</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.001008749008178711</v>
+        <v>0.002019405364990234</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.002025842666625977</v>
+        <v>0.001999378204345703</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.0009734630584716797</v>
+        <v>0.003002166748046875</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.0009982585906982422</v>
+        <v>0.003008842468261719</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.001000642776489258</v>
+        <v>0.002031564712524414</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.0009977817535400391</v>
+        <v>0.002998590469360352</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.0009980201721191406</v>
+        <v>0.00299835205078125</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.001995563507080078</v>
+        <v>0.003000736236572266</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.001001119613647461</v>
+        <v>0.003008604049682617</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.0009908676147460938</v>
+        <v>0.003001213073730469</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.001973867416381836</v>
+        <v>0.002998113632202148</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.001001119613647461</v>
+        <v>0.003997087478637695</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.001536130905151367</v>
+        <v>0.004001617431640625</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.00200653076171875</v>
+        <v>0.002997159957885742</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.001000642776489258</v>
+        <v>0.003040075302124023</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.0009992122650146484</v>
+        <v>0.003008127212524414</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.001027345657348633</v>
+        <v>0.00302886962890625</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.001007318496704102</v>
+        <v>0.002027273178100586</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.001994609832763672</v>
+        <v>0.003002405166625977</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.002000093460083008</v>
+        <v>0.001997470855712891</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.002004623413085938</v>
+        <v>0.003031015396118164</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.00100255012512207</v>
+        <v>0.002027511596679688</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.001985788345336914</v>
+        <v>0.002973079681396484</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.0009987354278564453</v>
+        <v>0.003005743026733398</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.002000570297241211</v>
+        <v>0.004004240036010742</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.001001358032226562</v>
+        <v>0.003998517990112305</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.001001119613647461</v>
+        <v>0.003039360046386719</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.0009982585906982422</v>
+        <v>0.002986669540405273</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.001996755599975586</v>
+        <v>0.004003524780273438</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.0009984970092773438</v>
+        <v>0.002980947494506836</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.0008332729339599609</v>
+        <v>0.002996921539306641</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.0009970664978027344</v>
+        <v>0.002996921539306641</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.0009992122650146484</v>
+        <v>0.001994848251342773</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.001002311706542969</v>
+        <v>0.003030300140380859</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.002001285552978516</v>
+        <v>0.006001949310302734</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.001000165939331055</v>
+        <v>0.00500941276550293</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.001004457473754883</v>
+        <v>0.003033876419067383</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.001008033752441406</v>
+        <v>0.002037286758422852</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.001013040542602539</v>
+        <v>0.003005027770996094</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.001000165939331055</v>
+        <v>0.002996921539306641</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.002001285552978516</v>
+        <v>0.002970695495605469</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.001000165939331055</v>
+        <v>0.003000497817993164</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.0009922981262207031</v>
+        <v>0.002999544143676758</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.0009989738464355469</v>
+        <v>0.003028631210327148</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.001000881195068359</v>
+        <v>0.002988338470458984</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.002002239227294922</v>
+        <v>0.004029035568237305</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.0009989738464355469</v>
+        <v>0.003000497817993164</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.001007556915283203</v>
+        <v>0.00300145149230957</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.001012086868286133</v>
+        <v>0.003026485443115234</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.00101470947265625</v>
+        <v>0.003031015396118164</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.001999616622924805</v>
+        <v>0.003016948699951172</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.0009810924530029297</v>
+        <v>0.003003597259521484</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.001000881195068359</v>
+        <v>0.00199437141418457</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.002003669738769531</v>
+        <v>0.002028226852416992</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.0009965896606445312</v>
+        <v>0.002997636795043945</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.00199580192565918</v>
+        <v>0.001997470855712891</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.001000404357910156</v>
+        <v>0.002027034759521484</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.002001523971557617</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.001001358032226562</v>
+        <v>0.003008604049682617</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.0009894371032714844</v>
+        <v>0.003990888595581055</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.001996278762817383</v>
+        <v>0.002994537353515625</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.001019716262817383</v>
+        <v>0.004001379013061523</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.001998186111450195</v>
+        <v>0.002997159957885742</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.0009970664978027344</v>
+        <v>0.003997325897216797</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.0009970664978027344</v>
+        <v>0.002994298934936523</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.002017021179199219</v>
+        <v>0.002997159957885742</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.001978874206542969</v>
+        <v>0.001998662948608398</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.002006769180297852</v>
+        <v>0.003001213073730469</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.002016305923461914</v>
+        <v>0.00200200080871582</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.0009882450103759766</v>
+        <v>0.003000974655151367</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.0009949207305908203</v>
+        <v>0.001996994018554688</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.001998186111450195</v>
+        <v>0.002999305725097656</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.002035379409790039</v>
+        <v>0.003007411956787109</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.002036809921264648</v>
+        <v>0.003996372222900391</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.001002073287963867</v>
+        <v>0.004006147384643555</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.001004695892333984</v>
+        <v>0.002933025360107422</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.002001285552978516</v>
+        <v>0.003995656967163086</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.001004934310913086</v>
+        <v>0.002794742584228516</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.001507997512817383</v>
+        <v>0.003997564315795898</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.0009973049163818359</v>
+        <v>0.003005504608154297</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.0009977817535400391</v>
+        <v>0.003002643585205078</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.002006769180297852</v>
+        <v>0.00400233268737793</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.0019989013671875</v>
+        <v>0.003017425537109375</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.001000642776489258</v>
+        <v>0.001993179321289062</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.002002954483032227</v>
+        <v>0.003011465072631836</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.001995325088500977</v>
+        <v>0.003998041152954102</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.001000404357910156</v>
+        <v>0.004005908966064453</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.0009827613830566406</v>
+        <v>0.003036737442016602</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.001000404357910156</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.0009965896606445312</v>
+        <v>0.00500035285949707</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.0009999275207519531</v>
+        <v>0.004005670547485352</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.0008044242858886719</v>
+        <v>0.003000736236572266</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.002002239227294922</v>
+        <v>0.001997709274291992</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.00200200080871582</v>
+        <v>0.002997875213623047</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.001001596450805664</v>
+        <v>0.001997709274291992</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.002000093460083008</v>
+        <v>0.002996683120727539</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.001999616622924805</v>
+        <v>0.002996444702148438</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.0009968280792236328</v>
+        <v>0.001988887786865234</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.00199580192565918</v>
+        <v>0.002998590469360352</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.001536846160888672</v>
+        <v>0.006004095077514648</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.001003503799438477</v>
+        <v>0.006031513214111328</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.002000093460083008</v>
+        <v>0.005001306533813477</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.0009989738464355469</v>
+        <v>0.003037214279174805</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.0009982585906982422</v>
+        <v>0.002986669540405273</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.002000331878662109</v>
+        <v>0.003340721130371094</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.001005411148071289</v>
+        <v>0.003998517990112305</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.001999855041503906</v>
+        <v>0.004050254821777344</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.001981735229492188</v>
+        <v>0.002021312713623047</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.001008272171020508</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.002014398574829102</v>
+        <v>0.003000974655151367</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.001997232437133789</v>
+        <v>0.00303196907043457</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.002004623413085938</v>
+        <v>0.003404617309570312</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.002016544342041016</v>
+        <v>0.002990484237670898</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.002001523971557617</v>
+        <v>0.00299835205078125</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.0009980201721191406</v>
+        <v>0.002999305725097656</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.002003192901611328</v>
+        <v>0.002996683120727539</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.001995086669921875</v>
+        <v>0.003000974655151367</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.001998662948608398</v>
+        <v>0.003972768783569336</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0.002003192901611328</v>
+        <v>0.003035545349121094</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.001017093658447266</v>
+        <v>0.002998590469360352</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.002002477645874023</v>
+        <v>0.003989219665527344</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.0009965896606445312</v>
+        <v>0.003998756408691406</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.00202631950378418</v>
+        <v>0.004040241241455078</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.00103306770324707</v>
+        <v>0.004016399383544922</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.0009973049163818359</v>
+        <v>0.001998186111450195</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.002001762390136719</v>
+        <v>0.002028703689575195</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.00200200080871582</v>
+        <v>0.004001617431640625</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.001007556915283203</v>
+        <v>0.004005670547485352</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.000995635986328125</v>
+        <v>0.002992153167724609</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.002007007598876953</v>
+        <v>0.003998517990112305</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0.001004457473754883</v>
+        <v>0.00299382209777832</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0.001002788543701172</v>
+        <v>0.003997087478637695</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0.001012325286865234</v>
+        <v>0.002995967864990234</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.0009980201721191406</v>
+        <v>0.002986669540405273</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.0009934902191162109</v>
+        <v>0.003020763397216797</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0.00200200080871582</v>
+        <v>0.002994060516357422</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0.001002311706542969</v>
+        <v>0.00202631950378418</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0.001971960067749023</v>
+        <v>0.003962039947509766</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.00102996826171875</v>
+        <v>0.003999471664428711</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0.001002311706542969</v>
+        <v>0.003022193908691406</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.00200200080871582</v>
+        <v>0.004004955291748047</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0.001002311706542969</v>
+        <v>0.003999471664428711</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0.0009975433349609375</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0.00099945068359375</v>
+        <v>0.003998756408691406</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.0006432533264160156</v>
+        <v>0.004007101058959961</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0.001997232437133789</v>
+        <v>0.0009744167327880859</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0.002001523971557617</v>
+        <v>0.0009980201721191406</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0.001014947891235352</v>
+        <v>0.0009975433349609375</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0.0009839534759521484</v>
+        <v>0.0009908676147460938</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0.002020835876464844</v>
+        <v>0.0009877681732177734</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.002005100250244141</v>
+        <v>0.0009999275207519531</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.0009846687316894531</v>
+        <v>0.002033233642578125</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>0.000995635986328125</v>
+        <v>0.001004457473754883</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>0.001998424530029297</v>
+        <v>0.001998662948608398</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0.001994132995605469</v>
+        <v>0.001003265380859375</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>0.001001834869384766</v>
+        <v>0.001006126403808594</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>0.001958608627319336</v>
+        <v>0.0009636878967285156</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>0.0009958744049072266</v>
+        <v>0.00100398063659668</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>0.0009958744049072266</v>
+        <v>0.001011133193969727</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>0.00200343132019043</v>
+        <v>0.001002311706542969</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>0.001032590866088867</v>
+        <v>0.001002311706542969</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>0.001006126403808594</v>
+        <v>0.001000881195068359</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>0</v>
+        <v>0.001006364822387695</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>0</v>
+        <v>0.0009920597076416016</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>0.0009837150573730469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>0.0009887218475341797</v>
+        <v>0.00100255012512207</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>0.001070499420166016</v>
+        <v>0.001015186309814453</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>0.0009961128234863281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>0.0009989738464355469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>0.001034975051879883</v>
+        <v>0.00099945068359375</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>0.002000331878662109</v>
+        <v>0.001002073287963867</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
+        <v>0.002002239227294922</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>0.001002311706542969</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>0.0009899139404296875</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>0.001001596450805664</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>0.001011848449707031</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>0.002013921737670898</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>0.001003026962280273</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>0.002001762390136719</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>0.0009927749633789062</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>0.0009758472442626953</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>0.00199437141418457</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>0.001001358032226562</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>0.001004695892333984</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>0.001024484634399414</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>0.001043081283569336</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>0.0009799003601074219</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>0.001001358032226562</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>0.001001119613647461</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>0.001993417739868164</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>0.001017093658447266</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>0.0009975433349609375</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>0.0009963512420654297</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>0.0009872913360595703</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>0.0009927749633789062</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>0.0009734630584716797</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>0.001008033752441406</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>0.001000165939331055</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>0.0009877681732177734</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>0.001016378402709961</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>0.0009996891021728516</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>0.0009832382202148438</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>0.00099945068359375</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>0.001004934310913086</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>0.001000642776489258</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>0.001002788543701172</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>0.001000881195068359</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>0.0009961128234863281</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>0.0009996891021728516</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>0.0009965896606445312</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>0.0009992122650146484</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>0.001000881195068359</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>0.002000331878662109</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>0.001004219055175781</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>0.001006364822387695</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>0.001009464263916016</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>0.001997470855712891</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>0.0009992122650146484</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>0.001003503799438477</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>0.0009944438934326172</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>0.001005172729492188</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>0.001006603240966797</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>0.0009999275207519531</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>0.0009999275207519531</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>0.0009999275207519531</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>0.001001119613647461</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>0.001001119613647461</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>0.001012325286865234</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>0.001006364822387695</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>0.001019716262817383</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>0.0009949207305908203</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>0.0009989738464355469</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>0.0009982585906982422</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>0.0009872913360595703</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>0.001001834869384766</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>0.001000165939331055</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>0.002019166946411133</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>0.00100255012512207</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>0.001986980438232422</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>0.002000808715820312</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>0.001000165939331055</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>0.0009908676147460938</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>0.001998186111450195</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>0.0009729862213134766</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>0.001001358032226562</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>0.001001596450805664</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>0.001000642776489258</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>0.001027822494506836</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>0.0009930133819580078</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>0.0009999275207519531</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>0.001002311706542969</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>0.0009889602661132812</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>0.0009927749633789062</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>0.001003742218017578</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>0.0009951591491699219</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>0.0009829998016357422</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>0.001003265380859375</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>0.0009980201721191406</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>0.0009951591491699219</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>0.001010894775390625</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>0.0009820461273193359</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>0.001000165939331055</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>0.001001358032226562</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>0.001002311706542969</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>0.0009975433349609375</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>0.00200200080871582</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>0.000995635986328125</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>0.0009915828704833984</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>0.000995635986328125</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>0.0009963512420654297</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>0.000995635986328125</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>0.001001834869384766</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>0.001001596450805664</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>0.001005172729492188</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>0.001000642776489258</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>0.0009975433349609375</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>0.001034021377563477</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>0.0009951591491699219</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>0.0009856224060058594</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>0.0009791851043701172</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>0.001005172729492188</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>0.002001285552978516</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>0.001010656356811523</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>0.0009980201721191406</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>0.00099945068359375</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>0.001987218856811523</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>0.0009920597076416016</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>0.0009884834289550781</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>0.00100255012512207</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>0.001011371612548828</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>0.00099945068359375</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>0.001000881195068359</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>0.001001596450805664</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>0.001990795135498047</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>0.001000642776489258</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>0.001000642776489258</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>0.001996994018554688</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>0.001999616622924805</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>0.0009882450103759766</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>0.0009894371032714844</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>0.0009908676147460938</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>0.0009996891021728516</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>0.0009703636169433594</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>0.0009965896606445312</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>0.001002073287963867</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>0.0009992122650146484</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>0.0009996891021728516</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>0.0009889602661132812</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>0.002006292343139648</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>0.0009942054748535156</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>0.001004695892333984</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>0.0009829998016357422</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>0.001023292541503906</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>0.0009925365447998047</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>0.0009925365447998047</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>0.0009908676147460938</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>0.0009958744049072266</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>0.0009815692901611328</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>0.001005411148071289</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>0.0009949207305908203</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>0.00099945068359375</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>0.001000165939331055</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>0.001007080078125</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>0.0009889602661132812</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>0.0009992122650146484</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>0.0009973049163818359</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>0.001019477844238281</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>0.0009953975677490234</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>0.0009939670562744141</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>0.0009934902191162109</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>0.001010656356811523</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>0.001001596450805664</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>0.001000404357910156</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>0.001004934310913086</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>0.001001358032226562</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>0.001002073287963867</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>0.001003503799438477</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>0.001007795333862305</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>0.0009961128234863281</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>0.001006841659545898</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>0.00200343132019043</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>0.0009858608245849609</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>0.001000165939331055</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>0.001030683517456055</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>0.001000881195068359</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>0.001000881195068359</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>0.001000642776489258</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>0.00099945068359375</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>0.001004695892333984</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>0.001006126403808594</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>0.001007795333862305</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>0.0009977817535400391</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>0.001002311706542969</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>0.001000404357910156</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>0.001001119613647461</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>0.001002788543701172</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>0.001006841659545898</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>0.001000165939331055</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>0.001036167144775391</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>0.001005411148071289</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>0.001006603240966797</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>0.0009987354278564453</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>0.001000881195068359</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>0.0009989738464355469</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>0.0009868144989013672</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>0.001000404357910156</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>0.00100255012512207</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>0.001001358032226562</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>0.001003503799438477</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>0.0009937286376953125</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>0.001000642776489258</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>0.0009992122650146484</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>0.001000881195068359</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>0.001004219055175781</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>0.002000093460083008</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>0.0009963512420654297</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>0.0009982585906982422</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>0.001001596450805664</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>0.001999855041503906</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>0.001022100448608398</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>0.0009977817535400391</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>0.001010656356811523</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>0.0009832382202148438</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>0.001001596450805664</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>0.001000642776489258</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>0.0009870529174804688</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>0.001004695892333984</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>0.000995635986328125</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>0.0009989738464355469</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>0.001000881195068359</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>0.003000736236572266</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>0.001006126403808594</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>0.0009999275207519531</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>0.001030445098876953</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>0.001007318496704102</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>0.001000165939331055</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>0.0009970664978027344</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>0.001001834869384766</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>0.001996278762817383</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>0.001000881195068359</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>0.0009961128234863281</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>0.00100398063659668</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>0.001030921936035156</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>0.001002073287963867</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>0.0009915828704833984</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>0.001018762588500977</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>0.001004457473754883</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>0.002003669738769531</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>0.0009984970092773438</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>0.001000404357910156</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>0.001001119613647461</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>0.001001358032226562</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>0.00099945068359375</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>0.00201869010925293</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>0.0009968280792236328</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>0.0009758472442626953</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>0.0009870529174804688</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>0.001001834869384766</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>0.001013040542602539</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>0.0009977817535400391</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>0.00099945068359375</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>0.0009920597076416016</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>0.0009739398956298828</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>0.0009987354278564453</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>0.002007007598876953</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>0.001000165939331055</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>0.001002788543701172</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>0.00100398063659668</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>0.0009899139404296875</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>0.002000808715820312</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>0.0009944438934326172</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>0.001993656158447266</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>0.001001596450805664</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>0.0009934902191162109</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>0.001006603240966797</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>0.0009963512420654297</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>0.0009865760803222656</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>0.0009934902191162109</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>0.001003026962280273</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>0.00100255012512207</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>0.001002788543701172</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>0.001000165939331055</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>0.0009987354278564453</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>0.0009429454803466797</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>0.0009899139404296875</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>0.001000642776489258</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>0.001004457473754883</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>0.001007080078125</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>0.001011848449707031</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>0.0009810924530029297</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>0.001013994216918945</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>0.001002788543701172</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>0.0009996891021728516</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>0.0009787082672119141</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>0.00100255012512207</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>0.0009996891021728516</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>0.0009989738464355469</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>0.001016616821289062</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>0.0009992122650146484</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>0.001000404357910156</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>0.002003908157348633</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>0.0009779930114746094</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>0.001983880996704102</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>0.001002073287963867</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>0.001000881195068359</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>0.001004219055175781</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>0.002002477645874023</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>0.001001119613647461</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>0.00099945068359375</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>0.001000404357910156</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>0.0009670257568359375</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>0.00101470947265625</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>0.002000808715820312</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>0.001002073287963867</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>0.001019716262817383</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>0.002040863037109375</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>0.00099945068359375</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>0.0009984970092773438</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>0.0009965896606445312</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>0.0009903907775878906</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>0.0009992122650146484</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>0.0009982585906982422</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>0.0009968280792236328</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>0.001001358032226562</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>0.0009982585906982422</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>0.001002788543701172</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>0.001001358032226562</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>0.001000165939331055</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>0.0009980201721191406</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>0.0009996891021728516</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>0.001004934310913086</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>0.001003026962280273</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>0.0009970664978027344</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>0.0009987354278564453</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>0.002022504806518555</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>0.001013278961181641</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>0.002010107040405273</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
         <v>0.0009946823120117188</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>0.0009999275207519531</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>0.00099945068359375</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>0.001992464065551758</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>0.0009887218475341797</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>0.0009787082672119141</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>0.001004457473754883</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>0.00100255012512207</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>0.0009999275207519531</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>0.001001834869384766</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>0.002003908157348633</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>0.00100255012512207</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>0.001009464263916016</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>0.0009987354278564453</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>0.0009980201721191406</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>0.001006126403808594</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>0.0009901523590087891</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>0.001007318496704102</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>0.0009992122650146484</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>0.0009799003601074219</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>0.001000165939331055</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>0.001007318496704102</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>0.001018762588500977</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>0.001060009002685547</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>0.00096893310546875</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>0.002001523971557617</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>0.001014947891235352</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>0.0009963512420654297</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>0.001000642776489258</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>0.0009920597076416016</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>0.001002311706542969</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>0.001012802124023438</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>0.001003742218017578</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>0.0009980201721191406</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>0.0009763240814208984</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>0.001001596450805664</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>0.001006364822387695</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>0.0009996891021728516</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>0.001000165939331055</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>0.0009751319885253906</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>0.001001834869384766</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>0.002016067504882812</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>0.001016139984130859</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>0.001006603240966797</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>0.001001358032226562</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>0.001013755798339844</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>0.0009913444519042969</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>0.0009729862213134766</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>0.0009996891021728516</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>0.00201869010925293</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>0.001000642776489258</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>0.001000165939331055</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>0.0009982585906982422</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>0.0009992122650146484</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>0.0009963512420654297</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>0.001002073287963867</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>0.0009984970092773438</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>0.001007318496704102</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>0.002001762390136719</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>0.0009992122650146484</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>0.001023530960083008</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>0.0009570121765136719</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>0.001026391983032227</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>0.001001119613647461</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>0.0009937286376953125</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>0.0009987354278564453</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>0.001001834869384766</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>0.001000404357910156</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>0.001002073287963867</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="n">
+        <v>0.0009930133819580078</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="n">
+        <v>0.001008749008178711</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>0.001001596450805664</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>0.001001358032226562</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>0.001002073287963867</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>0.001005172729492188</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>0.001007318496704102</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>0.0009663105010986328</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>0.0009999275207519531</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>0.001033782958984375</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>0.001002788543701172</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>0.001024484634399414</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>0.001003026962280273</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>0.001000881195068359</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>0.0009987354278564453</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>0.001012325286865234</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>0.001003503799438477</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>0.0009717941284179688</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>0.001011133193969727</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>0.001004695892333984</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>0.001000642776489258</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>0.0009603500366210938</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>0.0009992122650146484</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>0.001004219055175781</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>0.001003265380859375</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>0.001002788543701172</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>0.001013517379760742</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>0.000995635986328125</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>0.000972747802734375</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>0.001002311706542969</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>0.0009973049163818359</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>0.0009860992431640625</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>0.0009987354278564453</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>0.001013755798339844</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>0.001009941101074219</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>0.001002311706542969</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>0.001008749008178711</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>0.001003503799438477</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>0.001012802124023438</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>0.001001834869384766</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>0.00098419189453125</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>0.0009825229644775391</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="n">
+        <v>0.0009996891021728516</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="n">
+        <v>0.001001119613647461</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="n">
+        <v>0.001002073287963867</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="n">
+        <v>0.0009996891021728516</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="n">
+        <v>0.001000404357910156</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="n">
+        <v>0.001001596450805664</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="n">
+        <v>0.001018762588500977</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="n">
+        <v>0.001000165939331055</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>0.001024246215820312</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="n">
+        <v>0.001003742218017578</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="n">
+        <v>0.001006841659545898</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="n">
+        <v>0.001023054122924805</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="n">
+        <v>0.001001596450805664</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="n">
+        <v>0.0009992122650146484</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="n">
+        <v>0.0009920597076416016</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="n">
+        <v>0.001000642776489258</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="n">
+        <v>0.0009958744049072266</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="n">
+        <v>0.00099945068359375</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="n">
+        <v>0.0009901523590087891</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="n">
+        <v>0.0009965896606445312</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="n">
+        <v>0.0009791851043701172</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="n">
+        <v>0.0009975433349609375</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="n">
+        <v>0.0009667873382568359</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="n">
+        <v>0.001000165939331055</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="n">
+        <v>0.001006364822387695</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="n">
+        <v>0.001003265380859375</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="n">
+        <v>0.001000881195068359</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="n">
+        <v>0.0009982585906982422</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="n">
+        <v>0.0009989738464355469</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="n">
+        <v>0.001002311706542969</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="n">
+        <v>0.001001834869384766</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="n">
+        <v>0.0009996891021728516</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="n">
+        <v>0.001001596450805664</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="n">
+        <v>0.0009999275207519531</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="n">
+        <v>0.001000404357910156</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="n">
+        <v>0.001002073287963867</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="n">
+        <v>0.0009849071502685547</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="n">
+        <v>0.001013755798339844</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="n">
+        <v>0.001000642776489258</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="n">
+        <v>0.001005411148071289</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="n">
+        <v>0.001000404357910156</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="n">
+        <v>0.001003503799438477</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="n">
+        <v>0.001018285751342773</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="n">
+        <v>0.001000165939331055</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="n">
+        <v>0.001003026962280273</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="n">
+        <v>0.001008272171020508</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="n">
+        <v>0.002002954483032227</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="n">
+        <v>0.001005649566650391</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="n">
+        <v>0.001022100448608398</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="n">
+        <v>0.001011133193969727</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="n">
+        <v>0.001000404357910156</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="n">
+        <v>0.0009782314300537109</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="n">
+        <v>0.00101470947265625</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="n">
+        <v>0.00100255012512207</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="n">
+        <v>0.0009801387786865234</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="n">
+        <v>0.0009794235229492188</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="n">
+        <v>0.0009989738464355469</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="n">
+        <v>0.001000404357910156</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="n">
+        <v>0.0009639263153076172</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="n">
+        <v>0.00100398063659668</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="n">
+        <v>0.001001834869384766</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="n">
+        <v>0.00101161003112793</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="n">
+        <v>0.001000642776489258</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="n">
+        <v>0.0009787082672119141</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="n">
+        <v>0.001031637191772461</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="n">
+        <v>0.0009987354278564453</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="n">
+        <v>0.001001596450805664</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="n">
+        <v>0.0009982585906982422</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="n">
+        <v>0.0009968280792236328</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="n">
+        <v>0.001000404357910156</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="n">
+        <v>0.00100255012512207</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="n">
+        <v>0.0009865760803222656</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>0.00100255012512207</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>0.0009865760803222656</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>0.001016616821289062</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>0.001005172729492188</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>0.001014232635498047</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>0.001000404357910156</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>0.0009992122650146484</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>0.0009944438934326172</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>0.001024961471557617</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>0.001004219055175781</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>0.0009856224060058594</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>0.0009984970092773438</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>0.0009949207305908203</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>0.0009732246398925781</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>0.001000642776489258</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>0.001001358032226562</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>0.001003265380859375</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>0.0009980201721191406</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>0.001001119613647461</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>0.0009980201721191406</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>0.001000404357910156</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="n">
+        <v>0.001006364822387695</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="n">
+        <v>0.001002073287963867</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="n">
+        <v>0.0009901523590087891</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="n">
+        <v>0.001001119613647461</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="n">
+        <v>0.001012563705444336</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="n">
+        <v>0.001013517379760742</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="n">
+        <v>0.0009920597076416016</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="n">
+        <v>0.001008272171020508</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="n">
+        <v>0.0009818077087402344</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="n">
+        <v>0.0009827613830566406</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="n">
+        <v>0.00100255012512207</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="n">
+        <v>0.001998186111450195</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="n">
+        <v>0.0009977817535400391</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="n">
+        <v>0.001001834869384766</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="n">
+        <v>0.0009901523590087891</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="n">
+        <v>0.0009989738464355469</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="n">
+        <v>0.001001834869384766</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="n">
+        <v>0.001004457473754883</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="n">
+        <v>0.0009887218475341797</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="n">
+        <v>0.001026153564453125</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="n">
+        <v>0.0009999275207519531</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="n">
+        <v>0.0009992122650146484</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="n">
+        <v>0.001005887985229492</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="n">
+        <v>0.0009961128234863281</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="n">
+        <v>0.00100255012512207</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="n">
+        <v>0.00101017951965332</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="n">
+        <v>0.001012325286865234</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="n">
+        <v>0.001002311706542969</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="n">
+        <v>0.001005411148071289</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="n">
+        <v>0.0009996891021728516</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="n">
+        <v>0.0009977817535400391</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="n">
+        <v>0.001000642776489258</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="n">
+        <v>0.001000881195068359</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="n">
+        <v>0.00099945068359375</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="n">
+        <v>0.0009970664978027344</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="n">
+        <v>0.001001358032226562</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="n">
+        <v>0.0009937286376953125</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="n">
+        <v>0.0009975433349609375</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="n">
+        <v>0.001014232635498047</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="n">
+        <v>0.001030445098876953</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="n">
+        <v>0.0009984970092773438</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="n">
+        <v>0.001000404357910156</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="n">
+        <v>0.0009999275207519531</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="n">
+        <v>0.0009970664978027344</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="n">
+        <v>0.001001596450805664</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="n">
+        <v>0.001000165939331055</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="n">
+        <v>0.001000642776489258</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="n">
+        <v>0.001003265380859375</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="n">
+        <v>0.0009989738464355469</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="n">
+        <v>0.00099945068359375</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="n">
+        <v>0.0009949207305908203</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="n">
+        <v>0.001017093658447266</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="n">
+        <v>0.00100398063659668</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="n">
+        <v>0.001001119613647461</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="n">
+        <v>0.0009710788726806641</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="n">
+        <v>0.001000642776489258</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="n">
+        <v>0.001002073287963867</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="n">
+        <v>0.0009946823120117188</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="n">
+        <v>0.001022815704345703</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="n">
+        <v>0.002000570297241211</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="n">
+        <v>0.001002073287963867</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="n">
+        <v>0.0009832382202148438</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="n">
+        <v>0.0009894371032714844</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="n">
+        <v>0.001002073287963867</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="n">
+        <v>0.001005887985229492</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="n">
+        <v>0.001028537750244141</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="n">
+        <v>0.002001762390136719</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="n">
+        <v>0.001003742218017578</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="n">
+        <v>0.001000404357910156</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="n">
+        <v>0.001013755798339844</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="n">
+        <v>0.0009987354278564453</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="n">
+        <v>0.0009937286376953125</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="n">
+        <v>0.0009999275207519531</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="n">
+        <v>0.0009763240814208984</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="n">
+        <v>0.001001119613647461</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="n">
+        <v>0.001001596450805664</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="n">
+        <v>0.0009996891021728516</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="n">
+        <v>0.000995635986328125</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="n">
+        <v>0.001001596450805664</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="n">
+        <v>0.0009982585906982422</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="n">
+        <v>0.0009882450103759766</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="n">
+        <v>0.0009999275207519531</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="n">
+        <v>0.0009920597076416016</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="n">
+        <v>0.001001834869384766</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="n">
+        <v>0.001002073287963867</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="n">
+        <v>0.001008272171020508</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="n">
+        <v>0.001001358032226562</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="n">
+        <v>0.0009977817535400391</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="n">
+        <v>0.00099945068359375</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="n">
+        <v>0.001004219055175781</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="n">
+        <v>0.001006603240966797</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="n">
+        <v>0.00101780891418457</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="n">
+        <v>0.0009691715240478516</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="n">
+        <v>0.001002311706542969</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="n">
+        <v>0.001000404357910156</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="n">
+        <v>0.0009944438934326172</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="n">
+        <v>0.001027822494506836</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="n">
+        <v>0.0009899139404296875</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="n">
+        <v>0.0009989738464355469</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="n">
+        <v>0.0009946823120117188</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="n">
+        <v>0.0009987354278564453</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="n">
+        <v>0.0009512901306152344</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="n">
+        <v>0.001010656356811523</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="n">
+        <v>0.0009822845458984375</v>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="n">
+        <v>0.001003265380859375</v>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="n">
+        <v>0.0009930133819580078</v>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="n">
+        <v>0.0009820461273193359</v>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="n">
+        <v>0.0009999275207519531</v>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="n">
+        <v>0.001000165939331055</v>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="n">
+        <v>0.0009837150573730469</v>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="n">
+        <v>0.001001596450805664</v>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="n">
+        <v>0.001006364822387695</v>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="n">
+        <v>0.001001358032226562</v>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="n">
+        <v>0.0009794235229492188</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="n">
+        <v>0.0009849071502685547</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="n">
+        <v>0.00100255012512207</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="n">
+        <v>0.0009996891021728516</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="n">
+        <v>0.001015901565551758</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="n">
+        <v>0.001012563705444336</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="n">
+        <v>0.001003265380859375</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="n">
+        <v>0.001002311706542969</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="n">
+        <v>0.0009970664978027344</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="n">
+        <v>0.001000642776489258</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="n">
+        <v>0.001003265380859375</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="n">
+        <v>0.001000165939331055</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="n">
+        <v>0.0009977817535400391</v>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="n">
+        <v>0.0009884834289550781</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="n">
+        <v>0.001008510589599609</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="n">
+        <v>0.001011371612548828</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="n">
+        <v>0.0009977817535400391</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="n">
+        <v>0.00100398063659668</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="n">
+        <v>0.001001358032226562</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="n">
+        <v>0.001003503799438477</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="n">
+        <v>0.001018047332763672</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="n">
+        <v>0.0009999275207519531</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="n">
+        <v>0.0009999275207519531</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="n">
+        <v>0.001003026962280273</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="n">
+        <v>0.001008033752441406</v>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="n">
+        <v>0.001996994018554688</v>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="n">
+        <v>0.001008510589599609</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="n">
+        <v>0.0009982585906982422</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="n">
+        <v>0.0009999275207519531</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="n">
+        <v>0.0009901523590087891</v>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="n">
+        <v>0.0009961128234863281</v>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="n">
+        <v>0.0009999275207519531</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="n">
+        <v>0.001000404357910156</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="n">
+        <v>0.0009970664978027344</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="n">
+        <v>0.001003503799438477</v>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="n">
+        <v>0.001001834869384766</v>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="n">
+        <v>0.001001358032226562</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="n">
+        <v>0.001004457473754883</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="n">
+        <v>0.0009999275207519531</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="n">
+        <v>0.001000642776489258</v>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="n">
+        <v>0.00100255012512207</v>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="n">
+        <v>0.0009965896606445312</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="n">
+        <v>0.0009698867797851562</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="n">
+        <v>0.00099945068359375</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="n">
+        <v>0.0009973049163818359</v>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="n">
+        <v>0.0009684562683105469</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="n">
+        <v>0.0009980201721191406</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="n">
+        <v>0.001020669937133789</v>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="n">
+        <v>0.00100398063659668</v>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="n">
+        <v>0.0009982585906982422</v>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="n">
+        <v>0.00100255012512207</v>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="n">
+        <v>0.001000642776489258</v>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" t="n">
+        <v>0.001018285751342773</v>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="n">
+        <v>0.0009911060333251953</v>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="n">
+        <v>0.0009987354278564453</v>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="n">
+        <v>0.0009860992431640625</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="n">
+        <v>0.001000404357910156</v>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="n">
+        <v>0.001005649566650391</v>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="n">
+        <v>0.0009889602661132812</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="n">
+        <v>0.0009996891021728516</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="n">
+        <v>0.001000165939331055</v>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="n">
+        <v>0.001003026962280273</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="n">
+        <v>0.001001119613647461</v>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="n">
+        <v>0.001000881195068359</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="n">
+        <v>0.001003026962280273</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" t="n">
+        <v>0.001014471054077148</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="n">
+        <v>0.001001358032226562</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="n">
+        <v>0.001000165939331055</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="n">
+        <v>0.0009884834289550781</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="n">
+        <v>0.001004695892333984</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="n">
+        <v>0.001007080078125</v>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="n">
+        <v>0.001004457473754883</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" t="n">
+        <v>0.001001834869384766</v>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" t="n">
+        <v>0.001001834869384766</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" t="n">
+        <v>0.0009996891021728516</v>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" t="n">
+        <v>0.0009999275207519531</v>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" t="n">
+        <v>0.001008987426757812</v>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" t="n">
+        <v>0.0009970664978027344</v>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="n">
+        <v>0.001003503799438477</v>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="n">
+        <v>0.001001358032226562</v>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="n">
+        <v>0.001000165939331055</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="n">
+        <v>0.001005411148071289</v>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="n">
+        <v>0.001001596450805664</v>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="n">
+        <v>0.001030206680297852</v>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="n">
+        <v>0.001010417938232422</v>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="n">
+        <v>0.001001834869384766</v>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="n">
+        <v>0.0009925365447998047</v>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" t="n">
+        <v>0.0009980201721191406</v>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="n">
+        <v>0.001001119613647461</v>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="n">
+        <v>0.001003026962280273</v>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" t="n">
+        <v>0.001003026962280273</v>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" t="n">
+        <v>0.001001119613647461</v>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" t="n">
+        <v>0.0009987354278564453</v>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" t="n">
+        <v>0.0009975433349609375</v>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" t="n">
+        <v>0.000995635986328125</v>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" t="n">
+        <v>0.0009832382202148438</v>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" t="n">
+        <v>0.001014471054077148</v>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" t="n">
+        <v>0.0009999275207519531</v>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" t="n">
+        <v>0.001003026962280273</v>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" t="n">
+        <v>0.0009682178497314453</v>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" t="n">
+        <v>0.001022815704345703</v>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
